--- a/data/trans_camb/P2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-12,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-11,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 11,44</t>
+          <t>-10,75; 6,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 11,03</t>
+          <t>-15,91; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 9,09</t>
+          <t>-20,12; 5,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 21,13</t>
+          <t>-24,66; 2,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 11,79</t>
+          <t>-12,22; 7,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 6,7</t>
+          <t>-19,15; 3,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 14,23</t>
+          <t>-25,28; 1,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 9,0</t>
+          <t>-25,0; 0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 6,04</t>
+          <t>-8,49; 5,03</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 2,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; -0,01</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; -1,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>-9,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>-12,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-12,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-10,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 13,3</t>
+          <t>-11,0; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 12,8</t>
+          <t>-16,51; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 10,54</t>
+          <t>-20,85; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 28,07</t>
+          <t>-25,12; 2,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 13,82</t>
+          <t>-13,03; 8,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 7,18</t>
+          <t>-20,27; 3,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 17,49</t>
+          <t>-26,56; 1,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,46</t>
+          <t>-26,5; 0,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 7,1</t>
+          <t>-8,73; 5,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 2,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; -0,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,19; -2,81</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-18,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-23,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-10,81</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,68</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-13,42</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 4,15</t>
+          <t>-56,67; -1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 5,16</t>
+          <t>-54,99; -1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 0,8</t>
+          <t>-59,21; -2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,91</t>
+          <t>-6,38; 6,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 4,29</t>
+          <t>-9,87; 6,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 5,01</t>
+          <t>-11,68; 5,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 2,12</t>
+          <t>-11,23; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 1,91</t>
+          <t>-10,5; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 0,03</t>
+          <t>-30,34; -1,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-30,75; -1,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-35,07; -2,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 5,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-20,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>-23,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-11,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 4,39</t>
+          <t>-58,21; -2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 5,83</t>
+          <t>-56,53; -1,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 0,87</t>
+          <t>-59,62; -2,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 7,62</t>
+          <t>-6,39; 7,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 4,55</t>
+          <t>-10,3; 7,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 5,5</t>
+          <t>-12,33; 5,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,16</t>
+          <t>-11,9; 5,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 1,84</t>
+          <t>-11,0; 7,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 0,04</t>
+          <t>-31,61; -1,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; -1,43</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; -2,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 5,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 2,42</t>
+          <t>-11,44; 1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 2,47</t>
+          <t>-18,61; -0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 2,75</t>
+          <t>-19,05; -1,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,17</t>
+          <t>-5,61; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 4,06</t>
+          <t>-3,88; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,46</t>
+          <t>-3,98; 7,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 0,67</t>
+          <t>-4,04; 7,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,86</t>
+          <t>-2,69; 7,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 1,7</t>
+          <t>-5,12; 3,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 1,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 1,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 4,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 2,43</t>
+          <t>-11,65; 1,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 2,54</t>
+          <t>-18,7; -1,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 2,93</t>
+          <t>-19,31; -1,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 4,53</t>
+          <t>-5,67; 3,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,35</t>
+          <t>-3,95; 7,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,7</t>
+          <t>-4,05; 7,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 0,69</t>
+          <t>-4,14; 7,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,99</t>
+          <t>-2,73; 8,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,84</t>
+          <t>-5,25; 3,42</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 2,09</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 2,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 4,94</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,72</t>
+          <t>-6,61; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,91</t>
+          <t>-8,73; 7,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,44</t>
+          <t>-9,01; 7,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 0,79</t>
+          <t>0,32; 12,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -0,17</t>
+          <t>-5,08; 3,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,49</t>
+          <t>-9,99; 1,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,93</t>
+          <t>-8,49; 1,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,45</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,04</t>
+          <t>-4,0; 4,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 2,63</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 2,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 7,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,59%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 7,53</t>
+          <t>-6,76; 8,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 6,51</t>
+          <t>-9,05; 8,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 7,15</t>
+          <t>-9,31; 8,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,81</t>
+          <t>0,31; 14,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,2</t>
+          <t>-5,12; 3,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,47</t>
+          <t>-10,16; 1,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,99</t>
+          <t>-8,62; 1,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,45</t>
+          <t>0,0; 8,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,15</t>
+          <t>-4,11; 4,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 2,8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 2,89</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 8,52</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,28</t>
+          <t>-7,15; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 2,86</t>
+          <t>-6,81; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,85</t>
+          <t>-7,62; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,51</t>
+          <t>-11,01; -1,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,73</t>
+          <t>-5,8; 0,0</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 0,0</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 0,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; -0,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-3,91%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t>-1,02%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,5%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-1,23%</t>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,41</t>
+          <t>-7,15; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,95</t>
+          <t>-6,81; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 2,91</t>
+          <t>-7,62; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 6,1</t>
+          <t>-11,01; -1,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,9</t>
+          <t>-5,8; 0,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 0,0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 0,0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; -0,59</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-15,15</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 7,7</t>
+          <t>-17,86; 5,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,58</t>
+          <t>-13,82; 8,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 6,92</t>
+          <t>-15,16; 6,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 3,7</t>
+          <t>-3,89; 13,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 2,17</t>
+          <t>-10,13; 10,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 2,27</t>
+          <t>-9,16; 11,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,11</t>
+          <t>-7,86; 11,85</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 2,11</t>
+          <t>0,49; 18,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 1,49</t>
+          <t>-10,47; 4,67</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 5,88</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 6,0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 12,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>-2,53%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 8,38</t>
+          <t>-18,29; 5,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 9,83</t>
+          <t>-14,39; 8,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 7,62</t>
+          <t>-15,81; 7,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 3,95</t>
+          <t>-4,05; 16,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 2,28</t>
+          <t>-10,45; 12,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 2,23</t>
+          <t>-9,55; 13,64</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 3,37</t>
+          <t>-8,19; 14,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 2,18</t>
+          <t>0,49; 23,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 1,56</t>
+          <t>-11,03; 5,13</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 6,44</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 6,65</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 14,54</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 0,78</t>
+          <t>-14,93; -0,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,15</t>
+          <t>-15,38; -1,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,06</t>
+          <t>-18,49; -2,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,36</t>
+          <t>-3,8; 2,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -0,25</t>
+          <t>-3,34; 2,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,15</t>
+          <t>-4,78; 1,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,6</t>
+          <t>-5,68; 1,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,18</t>
+          <t>-2,33; 3,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,49</t>
+          <t>-7,6; -0,31</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; -1,28</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; -2,07</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,75</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,75</t>
+          <t>-15,23; -0,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,2</t>
+          <t>-15,74; -2,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,05</t>
+          <t>-18,88; -2,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,52</t>
+          <t>-3,86; 2,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -0,26</t>
+          <t>-3,45; 2,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -1,29</t>
+          <t>-4,9; 1,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,64</t>
+          <t>-5,92; 1,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,19</t>
+          <t>-2,4; 3,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,59</t>
+          <t>-7,96; -0,34</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; -1,33</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; -2,19</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 1,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
